--- a/学生名单.xlsx
+++ b/学生名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14920"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -667,137 +674,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,7 +817,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,13 +1101,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1348,13 +1354,13 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.8928571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.4375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44166666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1374,7 +1380,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1390,7 +1396,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1406,7 +1412,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1422,7 +1428,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1430,7 +1436,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1438,7 +1444,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1446,7 +1452,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1454,7 +1460,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1462,7 +1468,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1470,7 +1476,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1478,7 +1484,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1494,7 +1500,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1598,7 +1604,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1606,7 +1612,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
